--- a/project/aprint/html/devops/模板_UDI数据导入_V2.xlsx
+++ b/project/aprint/html/devops/模板_UDI数据导入_V2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DoYsUI\project\aprint\html\devops\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6954F239-1B62-4FB2-9FC0-12442041E3F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF0C762-3052-487F-B590-E8581F048443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -1346,7 +1346,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27EEF2B2-479C-4451-AB82-A9CEDCC1D16B}">
-  <dimension ref="A1:T82"/>
+  <dimension ref="A1:Q82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1364,17 +1364,14 @@
     <col min="11" max="11" width="20.25" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.25" style="6" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="2"/>
+    <col min="14" max="14" width="15.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1415,28 +1412,19 @@
         <v>18</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="T1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1472,23 +1460,16 @@
         <v>46</v>
       </c>
       <c r="M2" s="9"/>
-      <c r="N2" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="N2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" s="4"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1502,15 +1483,12 @@
       <c r="K3" s="4"/>
       <c r="L3" s="5"/>
       <c r="M3" s="9"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-    </row>
-    <row r="4" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1524,15 +1502,12 @@
       <c r="K4" s="4"/>
       <c r="L4" s="5"/>
       <c r="M4" s="9"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-    </row>
-    <row r="5" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1546,15 +1521,12 @@
       <c r="K5" s="4"/>
       <c r="L5" s="5"/>
       <c r="M5" s="9"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-    </row>
-    <row r="6" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1568,15 +1540,12 @@
       <c r="K6" s="4"/>
       <c r="L6" s="5"/>
       <c r="M6" s="9"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-    </row>
-    <row r="7" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1590,15 +1559,12 @@
       <c r="K7" s="4"/>
       <c r="L7" s="5"/>
       <c r="M7" s="9"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-    </row>
-    <row r="8" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1612,15 +1578,12 @@
       <c r="K8" s="4"/>
       <c r="L8" s="5"/>
       <c r="M8" s="9"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-    </row>
-    <row r="9" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1634,15 +1597,12 @@
       <c r="K9" s="4"/>
       <c r="L9" s="5"/>
       <c r="M9" s="9"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-    </row>
-    <row r="10" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1656,15 +1616,12 @@
       <c r="K10" s="4"/>
       <c r="L10" s="5"/>
       <c r="M10" s="9"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-    </row>
-    <row r="11" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1678,27 +1635,24 @@
       <c r="K11" s="4"/>
       <c r="L11" s="5"/>
       <c r="M11" s="9"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-    </row>
-    <row r="12" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
     </row>
-    <row r="13" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
     </row>
-    <row r="14" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
     </row>
-    <row r="15" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
     </row>
-    <row r="16" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
     </row>
     <row r="17" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -1906,10 +1860,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{0806450E-D37E-498F-9AEA-DC1758B5E0E1}">
       <formula1>"耗材,设备"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576 N2:O1048576 G2:J1048576" xr:uid="{CA5BCF30-217C-4311-82BA-8D358D58C918}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576 G2:J1048576" xr:uid="{CA5BCF30-217C-4311-82BA-8D358D58C918}">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q1048576" xr:uid="{E970174B-C62E-4D37-9716-A967FC50FAC3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N1048576" xr:uid="{E970174B-C62E-4D37-9716-A967FC50FAC3}">
       <formula1>"一维码,二维码,RFID,一维码、二维码,一维码、RFID,二维码、RFID,一维码、二维码、RFID,其它"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576" xr:uid="{77B2FBE6-017A-408C-B4BA-D2B616F61738}">
@@ -1923,7 +1877,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D23F5AC-21C8-4F2E-A364-5437C0BD65D6}">
-  <dimension ref="A1:O82"/>
+  <dimension ref="A1:R82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1945,11 +1899,14 @@
     <col min="11" max="11" width="13.25" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="13.75" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="2"/>
+    <col min="15" max="15" width="11.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1990,13 +1947,22 @@
         <v>53</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2029,11 +1995,18 @@
         <v>63</v>
       </c>
       <c r="N2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="O2" s="4"/>
-    </row>
-    <row r="3" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R2" s="4"/>
+    </row>
+    <row r="3" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="15"/>
       <c r="C3" s="13"/>
@@ -2048,9 +2021,12 @@
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="5"/>
-      <c r="O3" s="4"/>
-    </row>
-    <row r="4" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O3" s="5"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="4"/>
+    </row>
+    <row r="4" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
       <c r="C4" s="13"/>
@@ -2065,9 +2041,12 @@
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="5"/>
-      <c r="O4" s="4"/>
-    </row>
-    <row r="5" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O4" s="5"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="4"/>
+    </row>
+    <row r="5" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
       <c r="C5" s="13"/>
@@ -2082,9 +2061,12 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="5"/>
-      <c r="O5" s="4"/>
-    </row>
-    <row r="6" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O5" s="5"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="4"/>
+    </row>
+    <row r="6" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="13"/>
@@ -2099,9 +2081,12 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="5"/>
-      <c r="O6" s="4"/>
-    </row>
-    <row r="7" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O6" s="5"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="4"/>
+    </row>
+    <row r="7" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
       <c r="C7" s="13"/>
@@ -2116,9 +2101,12 @@
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="5"/>
-      <c r="O7" s="4"/>
-    </row>
-    <row r="8" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O7" s="5"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="4"/>
+    </row>
+    <row r="8" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="4"/>
       <c r="C8" s="13"/>
@@ -2133,9 +2121,12 @@
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="5"/>
-      <c r="O8" s="4"/>
-    </row>
-    <row r="9" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O8" s="5"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="4"/>
+    </row>
+    <row r="9" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="4"/>
       <c r="C9" s="13"/>
@@ -2150,9 +2141,12 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="5"/>
-      <c r="O9" s="4"/>
-    </row>
-    <row r="10" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O9" s="5"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="4"/>
+    </row>
+    <row r="10" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
       <c r="C10" s="13"/>
@@ -2167,9 +2161,12 @@
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="5"/>
-      <c r="O10" s="4"/>
-    </row>
-    <row r="11" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O10" s="5"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="4"/>
+    </row>
+    <row r="11" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
       <c r="C11" s="13"/>
@@ -2184,21 +2181,24 @@
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="5"/>
-      <c r="O11" s="4"/>
-    </row>
-    <row r="12" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O11" s="5"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="4"/>
+    </row>
+    <row r="12" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
     </row>
-    <row r="13" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
     </row>
-    <row r="14" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
     </row>
-    <row r="15" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
     </row>
-    <row r="16" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
     </row>
     <row r="17" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -2403,7 +2403,7 @@
   <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:J1048576 G2:G1048576" xr:uid="{EE1F15EB-45B2-413E-AD5E-6CFED4DAACD9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:J1048576 G2:G1048576 N2:O1048576" xr:uid="{EE1F15EB-45B2-413E-AD5E-6CFED4DAACD9}">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
